--- a/examples/1928+738/2024-12-13/Pol_LL/129.3/model_params.xlsx
+++ b/examples/1928+738/2024-12-13/Pol_LL/129.3/model_params.xlsx
@@ -525,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.238212195815342</v>
+        <v>1.171237943933338</v>
       </c>
       <c r="C2">
-        <v>1.93041852921103</v>
+        <v>1.750183676244302</v>
       </c>
       <c r="D2">
-        <v>0.5401871506617024</v>
+        <v>0.7113656406675475</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.122975324516335</v>
+        <v>0.4064709299405205</v>
       </c>
       <c r="C3">
-        <v>0.6911663986868652</v>
+        <v>0.6100393722706489</v>
       </c>
       <c r="D3">
-        <v>0.04227578600445137</v>
+        <v>0.1223236792868612</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -559,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1181762247878484</v>
+        <v>0.4067324416166401</v>
       </c>
       <c r="C4">
-        <v>0.5715451038437716</v>
+        <v>0.522563067306538</v>
       </c>
       <c r="D4">
-        <v>0.05508772776605786</v>
+        <v>0.09827808095380097</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3550992468770341</v>
+        <v>0.324772559160894</v>
       </c>
       <c r="C5">
-        <v>0.5077849532784914</v>
+        <v>0.3736818516057213</v>
       </c>
       <c r="D5">
-        <v>0.2154610669188743</v>
+        <v>0.3401554507229122</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -593,13 +593,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4358243143409808</v>
+        <v>0.8842339333686406</v>
       </c>
       <c r="C6">
-        <v>1.442048078558554</v>
+        <v>1.013818457464465</v>
       </c>
       <c r="D6">
-        <v>2.370195055623361</v>
+        <v>3.594541366457297</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -610,13 +610,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.752719839760969</v>
+        <v>4.264489956387919</v>
       </c>
       <c r="C7">
-        <v>1.924207116399924</v>
+        <v>-0.03898783427673092</v>
       </c>
       <c r="D7">
-        <v>0.8123148592099607</v>
+        <v>4.203168585320245</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -627,13 +627,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.03661887871804</v>
+        <v>18.02351897698932</v>
       </c>
       <c r="C8">
-        <v>-1.191762727661093</v>
+        <v>-0.4349819892491761</v>
       </c>
       <c r="D8">
-        <v>0.201677385336969</v>
+        <v>0.2500723227033916</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -644,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3635792103251963</v>
+        <v>0.3749788368099476</v>
       </c>
       <c r="C9">
-        <v>0.3838311280293162</v>
+        <v>0.395788337338512</v>
       </c>
       <c r="D9">
-        <v>0.3342594805678132</v>
+        <v>0.322683978969061</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -661,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.395594760057641</v>
+        <v>2.3261198996621</v>
       </c>
       <c r="C10">
-        <v>2.517254292712974</v>
+        <v>2.445329349236653</v>
       </c>
       <c r="D10">
-        <v>2.360907343811844</v>
+        <v>2.415864469804946</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -678,13 +678,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.998344746890213</v>
+        <v>5.34072914054299</v>
       </c>
       <c r="C11">
-        <v>0.2752772764968685</v>
+        <v>0.6472885240743458</v>
       </c>
       <c r="D11">
-        <v>4.514361561183891</v>
+        <v>4.165064209140242</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -695,13 +695,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.990149270143409</v>
+        <v>10.95962863844069</v>
       </c>
       <c r="C12">
-        <v>-10.51943204711275</v>
+        <v>-8.413326556938003</v>
       </c>
       <c r="D12">
-        <v>10.00078102001391</v>
+        <v>8.089933262248543</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -712,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3501700539769345</v>
+        <v>0.3785782956192191</v>
       </c>
       <c r="C13">
-        <v>0.3676154973324451</v>
+        <v>0.4019757358947997</v>
       </c>
       <c r="D13">
-        <v>0.3501972981042552</v>
+        <v>0.3176503195495406</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -729,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.467153744695044</v>
+        <v>2.041775917711595</v>
       </c>
       <c r="C14">
-        <v>2.597491135117437</v>
+        <v>2.13626119198177</v>
       </c>
       <c r="D14">
-        <v>2.274002113182728</v>
+        <v>2.700108641742874</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -746,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.868742782452188</v>
+        <v>5.390259065004226</v>
       </c>
       <c r="C15">
-        <v>0.134598148309072</v>
+        <v>0.7081487866787557</v>
       </c>
       <c r="D15">
-        <v>4.623937089161243</v>
+        <v>4.108748579317666</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -763,13 +763,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.661344002857936</v>
+        <v>7.712823765871871</v>
       </c>
       <c r="C16">
-        <v>-9.862637007727914</v>
+        <v>-11.96625269715657</v>
       </c>
       <c r="D16">
-        <v>9.379913843794892</v>
+        <v>11.3299275993092</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -780,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3650096560726323</v>
+        <v>0.4037358263966748</v>
       </c>
       <c r="C17">
-        <v>0.3843241133216331</v>
+        <v>0.4264911733107449</v>
       </c>
       <c r="D17">
-        <v>0.3344180389624716</v>
+        <v>0.2952359226434423</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -797,13 +797,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.49534545976165</v>
+        <v>2.654281294337889</v>
       </c>
       <c r="C18">
-        <v>2.63122603734274</v>
+        <v>2.792003976530204</v>
       </c>
       <c r="D18">
-        <v>2.251763279266562</v>
+        <v>2.11269076731176</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -814,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.573650166766433</v>
+        <v>5.517921816684797</v>
       </c>
       <c r="C19">
-        <v>-0.1817268656742523</v>
+        <v>0.7999261831275125</v>
       </c>
       <c r="D19">
-        <v>4.925364282783496</v>
+        <v>4.031974372808802</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -831,13 +831,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.365241169140921</v>
+        <v>9.002513799453855</v>
       </c>
       <c r="C20">
-        <v>-10.13827054015449</v>
+        <v>-10.5533382950873</v>
       </c>
       <c r="D20">
-        <v>9.661993453283879</v>
+        <v>10.00379023192123</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -848,13 +848,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3273395734028424</v>
+        <v>0.2733687986436037</v>
       </c>
       <c r="C21">
-        <v>0.3443926024700396</v>
+        <v>0.2848779856452083</v>
       </c>
       <c r="D21">
-        <v>0.3723460793790036</v>
+        <v>0.4238337271942823</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.434932473697327</v>
+        <v>1.970562552723101</v>
       </c>
       <c r="C22">
-        <v>2.577105325701575</v>
+        <v>2.05878397849583</v>
       </c>
       <c r="D22">
-        <v>2.306356904952244</v>
+        <v>2.782181769135812</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.943044817165062</v>
+        <v>5.076005228846693</v>
       </c>
       <c r="C23">
-        <v>0.2313889289791005</v>
+        <v>0.3415055863330591</v>
       </c>
       <c r="D23">
-        <v>4.525424177983071</v>
+        <v>4.428853547861683</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -899,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.862017433074641</v>
+        <v>8.096553439820699</v>
       </c>
       <c r="C24">
-        <v>-9.54681297519118</v>
+        <v>-11.48883044513491</v>
       </c>
       <c r="D24">
-        <v>9.040616783115031</v>
+        <v>10.79579741706723</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -916,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3405192572098986</v>
+        <v>0.3105587526422923</v>
       </c>
       <c r="C25">
-        <v>0.3583193232072892</v>
+        <v>0.3255663068855273</v>
       </c>
       <c r="D25">
-        <v>0.3592825396732801</v>
+        <v>0.3869865361439102</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -933,13 +933,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.331053566306258</v>
+        <v>2.118910008771649</v>
       </c>
       <c r="C26">
-        <v>2.463752856544443</v>
+        <v>2.229805611469011</v>
       </c>
       <c r="D26">
-        <v>2.415926792473026</v>
+        <v>2.617171399084349</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.789782104334267</v>
+        <v>5.619019257841043</v>
       </c>
       <c r="C27">
-        <v>0.07062506771546911</v>
+        <v>0.9817463834646676</v>
       </c>
       <c r="D27">
-        <v>4.679615596746959</v>
+        <v>3.846699266776128</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -967,13 +967,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.737672445225583</v>
+        <v>7.647561178657343</v>
       </c>
       <c r="C28">
-        <v>-9.720143943105709</v>
+        <v>-12.02412396425016</v>
       </c>
       <c r="D28">
-        <v>9.253249881357807</v>
+        <v>11.27261326106751</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -984,13 +984,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.3570754761784534</v>
+        <v>0.3374637660529359</v>
       </c>
       <c r="C29">
-        <v>0.3738283909487946</v>
+        <v>0.355397726229686</v>
       </c>
       <c r="D29">
-        <v>0.3440130575039958</v>
+        <v>0.3593214678406891</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1001,13 +1001,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.182916984812682</v>
+        <v>1.931724807701502</v>
       </c>
       <c r="C30">
-        <v>2.302112723696622</v>
+        <v>2.012285857482204</v>
       </c>
       <c r="D30">
-        <v>2.559294480203261</v>
+        <v>2.824209346156565</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1018,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.842606582978412</v>
+        <v>5.327236539501113</v>
       </c>
       <c r="C31">
-        <v>0.09460081299789917</v>
+        <v>0.6403749877731052</v>
       </c>
       <c r="D31">
-        <v>4.659596346130604</v>
+        <v>4.179266795338886</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1035,13 +1035,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.72197902422219</v>
+        <v>8.495436858510606</v>
       </c>
       <c r="C32">
-        <v>-9.748523543608869</v>
+        <v>-11.12961295414556</v>
       </c>
       <c r="D32">
-        <v>9.299822356648141</v>
+        <v>10.53551167167146</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1052,13 +1052,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.3517668422210324</v>
+        <v>0.33935590267328</v>
       </c>
       <c r="C33">
-        <v>0.3710738876655784</v>
+        <v>0.3552426515862633</v>
       </c>
       <c r="D33">
-        <v>0.3472689177274899</v>
+        <v>0.3614365994465435</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1069,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.45746296991799</v>
+        <v>2.234590072608926</v>
       </c>
       <c r="C34">
-        <v>2.595762465372865</v>
+        <v>2.33379123188138</v>
       </c>
       <c r="D34">
-        <v>2.290878251466065</v>
+        <v>2.531992324620891</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1086,13 +1086,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.632113276997892</v>
+        <v>4.717040164622383</v>
       </c>
       <c r="C35">
-        <v>-0.1485191378459937</v>
+        <v>-0.006476660457950967</v>
       </c>
       <c r="D35">
-        <v>4.892928556130442</v>
+        <v>4.775734992009143</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1103,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.067220186523292</v>
+        <v>8.480370482059355</v>
       </c>
       <c r="C36">
-        <v>-10.41795641786807</v>
+        <v>-11.13000359484726</v>
       </c>
       <c r="D36">
-        <v>9.9240557916523</v>
+        <v>10.47640861557398</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.360653015823662</v>
+        <v>0.2744516913818524</v>
       </c>
       <c r="C37">
-        <v>0.3808015649313241</v>
+        <v>0.2877825426379684</v>
       </c>
       <c r="D37">
-        <v>0.337395722150116</v>
+        <v>0.422670224417262</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -1137,13 +1137,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.221969418644213</v>
+        <v>2.908960235253859</v>
       </c>
       <c r="C38">
-        <v>2.33132032973899</v>
+        <v>3.077074127274005</v>
       </c>
       <c r="D38">
-        <v>2.534518913002483</v>
+        <v>1.848360861326628</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1154,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.814649340298397</v>
+        <v>4.347116305385592</v>
       </c>
       <c r="C39">
-        <v>0.06292341021079897</v>
+        <v>-0.4379928894735796</v>
       </c>
       <c r="D39">
-        <v>4.687786696409898</v>
+        <v>5.130535359043974</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1171,13 +1171,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.27708105652103</v>
+        <v>8.880250530877056</v>
       </c>
       <c r="C40">
-        <v>-10.22469562113801</v>
+        <v>-10.6662323568141</v>
       </c>
       <c r="D40">
-        <v>9.685671112163163</v>
+        <v>10.09424094286505</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
